--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_1_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_1_bus_isolated.xlsx
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523829</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.18850204033981</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314908</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -775,55 +775,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>0.9526302265340155</v>
+        <v>0.9526279648020826</v>
       </c>
       <c r="O3">
-        <v>5.603216276639368E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526265841752217</v>
+        <v>0.9526279648025182</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370838423278735</v>
+        <v>-3.879734892801034E-12</v>
       </c>
       <c r="R3">
-        <v>130.5452019608376</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9998809959197</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302265072437</v>
+        <v>0.9526279647753111</v>
       </c>
       <c r="O4">
-        <v>5.603145611868768E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952626584201993</v>
+        <v>0.9526279648292897</v>
       </c>
       <c r="Q4">
-        <v>-0.000137082423217952</v>
+        <v>1.41523214460511E-09</v>
       </c>
       <c r="R4">
-        <v>130.545099590077</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998809973388</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -926,22 +926,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302264983201</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O5">
-        <v>5.603122057063056E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526265842109171</v>
+        <v>0.9526279648382132</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370819501895625</v>
+        <v>1.888264446876545E-09</v>
       </c>
       <c r="R5">
-        <v>130.5450654629078</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998809978118</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302264983197</v>
+        <v>0.9526279647663872</v>
       </c>
       <c r="O6">
-        <v>5.603122056916932E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526265842109168</v>
+        <v>0.9526279648382133</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370819501902257</v>
+        <v>1.888274637957202E-09</v>
       </c>
       <c r="R6">
-        <v>130.545065464186</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998809978119</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.70356907604972</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1142,55 +1142,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>0.9526302263827638</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>5.60278976760379E-06</v>
+        <v>0.7109795688765318</v>
       </c>
       <c r="P3">
-        <v>0.9526265843264737</v>
+        <v>0.9171656569381407</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370747454776775</v>
+        <v>17.92198046293677</v>
       </c>
       <c r="R3">
-        <v>130.5448621257579</v>
+        <v>-106.5279586928745</v>
       </c>
       <c r="S3">
-        <v>-179.9998810050166</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1234,22 +1234,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302263559923</v>
+        <v>1.107498627561354</v>
       </c>
       <c r="O4">
-        <v>5.602719103038699E-06</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>0.9526265843532451</v>
+        <v>0.9171656569531279</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370733263716107</v>
+        <v>17.92198046336741</v>
       </c>
       <c r="R4">
-        <v>130.5447597416398</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
-        <v>-179.9998810064357</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302263470684</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>5.602695548197033E-06</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>0.9526265843621691</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370728533393652</v>
+        <v>17.92198046351095</v>
       </c>
       <c r="R5">
-        <v>130.5447256117942</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S5">
-        <v>-179.9998810069088</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302263470684</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O6">
-        <v>5.602695547967573E-06</v>
+        <v>0.7109795688758745</v>
       </c>
       <c r="P6">
-        <v>0.9526265843621693</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q6">
-        <v>-0.000137072853336174</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R6">
-        <v>130.5447256120763</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S6">
-        <v>-179.9998810069088</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.70356907604972</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1509,55 +1509,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.010953897753573</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>23.22049548391905</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>0.9526302263827638</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>5.60278976760379E-06</v>
+        <v>0.7109795688765318</v>
       </c>
       <c r="P3">
-        <v>0.9526265843264737</v>
+        <v>0.9171656569381407</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370747454776775</v>
+        <v>17.92198046293677</v>
       </c>
       <c r="R3">
-        <v>130.5448621257579</v>
+        <v>-106.5279586928745</v>
       </c>
       <c r="S3">
-        <v>-179.9998810050166</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1601,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302263559923</v>
+        <v>1.107498627561354</v>
       </c>
       <c r="O4">
-        <v>5.602719103038699E-06</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>0.9526265843532451</v>
+        <v>0.9171656569531279</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370733263716107</v>
+        <v>17.92198046336741</v>
       </c>
       <c r="R4">
-        <v>130.5447597416398</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
-        <v>-179.9998810064357</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302263470684</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>5.602695548197033E-06</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>0.9526265843621691</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370728533393652</v>
+        <v>17.92198046351095</v>
       </c>
       <c r="R5">
-        <v>130.5447256117942</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S5">
-        <v>-179.9998810069088</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302263470684</v>
+        <v>1.107498627557164</v>
       </c>
       <c r="O6">
-        <v>5.602695547967573E-06</v>
+        <v>0.7109795688758745</v>
       </c>
       <c r="P6">
-        <v>0.9526265843621693</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q6">
-        <v>-0.000137072853336174</v>
+        <v>17.92198046351096</v>
       </c>
       <c r="R6">
-        <v>130.5447256120763</v>
+        <v>-106.5279586896351</v>
       </c>
       <c r="S6">
-        <v>-179.9998810069088</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9477232070952273</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7936674232739496</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9574835309888196</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.75158797610133</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1876,55 +1876,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.133684588661887</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.133684588661887</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.73167820017895</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.73167820017895</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>0.866024977286366</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
-        <v>1.491973198554572E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660262473918329</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>-6.992652272398723E-05</v>
+        <v>3.104221009984792E-11</v>
       </c>
       <c r="R3">
-        <v>-31.64757682617444</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9998782821488</v>
+        <v>179.9999999999603</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249772620287</v>
+        <v>0.8660254037597845</v>
       </c>
       <c r="O4">
-        <v>1.492057853371176E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660262474161704</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>-6.992379803312891E-05</v>
+        <v>2.75575113240995E-09</v>
       </c>
       <c r="R4">
-        <v>-31.64928870241162</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9998782794241</v>
+        <v>179.9999999972356</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.866024977253916</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O5">
-        <v>1.492086072075755E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660262474242831</v>
+        <v>0.8660254038166321</v>
       </c>
       <c r="Q5">
-        <v>-6.992288979997356E-05</v>
+        <v>3.663988287238855E-09</v>
       </c>
       <c r="R5">
-        <v>-31.64985928142837</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9998782785159</v>
+        <v>179.9999999963274</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249772539161</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O6">
-        <v>1.492086072082107E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660262474242831</v>
+        <v>0.8660254038166321</v>
       </c>
       <c r="Q6">
-        <v>-6.992288979737279E-05</v>
+        <v>3.663999274737344E-09</v>
       </c>
       <c r="R6">
-        <v>-31.64985928416944</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9998782785159</v>
+        <v>179.9999999963274</v>
       </c>
     </row>
   </sheetData>
@@ -2217,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9477232070952273</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7936674232739496</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9574835309888196</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.75158797610133</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2243,55 +2243,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.133684588661887</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.133684588661887</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.73167820017895</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.73167820017895</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>0.866024977286366</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
-        <v>1.491973198554572E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660262473918329</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>-6.992652272398723E-05</v>
+        <v>3.104221009984792E-11</v>
       </c>
       <c r="R3">
-        <v>-31.64757682617444</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9998782821488</v>
+        <v>179.9999999999603</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2335,22 +2335,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249772620287</v>
+        <v>0.8660254037597845</v>
       </c>
       <c r="O4">
-        <v>1.492057853371176E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660262474161704</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>-6.992379803312891E-05</v>
+        <v>2.75575113240995E-09</v>
       </c>
       <c r="R4">
-        <v>-31.64928870241162</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9998782794241</v>
+        <v>179.9999999972356</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.866024977253916</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O5">
-        <v>1.492086072075755E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660262474242831</v>
+        <v>0.8660254038166321</v>
       </c>
       <c r="Q5">
-        <v>-6.992288979997356E-05</v>
+        <v>3.663988287238855E-09</v>
       </c>
       <c r="R5">
-        <v>-31.64985928142837</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9998782785159</v>
+        <v>179.9999999963274</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249772539161</v>
+        <v>0.8660254037516719</v>
       </c>
       <c r="O6">
-        <v>1.492086072082107E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660262474242831</v>
+        <v>0.8660254038166321</v>
       </c>
       <c r="Q6">
-        <v>-6.992288979737279E-05</v>
+        <v>3.663999274737344E-09</v>
       </c>
       <c r="R6">
-        <v>-31.64985928416944</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9998782785159</v>
+        <v>179.9999999963274</v>
       </c>
     </row>
   </sheetData>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9949806626618445</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9175617791399007</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9648695716021196</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.43727595412387</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.12802105335014</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2610,55 +2610,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.795733578210674</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.795733578210674</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20.73534529545565</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20.73534529545565</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>0.8660249771488666</v>
+        <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>1.492351594806117E-06</v>
+        <v>0.6348876951823903</v>
       </c>
       <c r="P3">
-        <v>0.8660262475293323</v>
+        <v>0.8307352055776831</v>
       </c>
       <c r="Q3">
-        <v>-6.991742583706194E-05</v>
+        <v>17.5701177953652</v>
       </c>
       <c r="R3">
-        <v>-31.65102505377781</v>
+        <v>-106.9885815758095</v>
       </c>
       <c r="S3">
-        <v>179.999878273052</v>
+        <v>158.5647675412734</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2702,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249771245292</v>
+        <v>1.005693895251237</v>
       </c>
       <c r="O4">
-        <v>1.492436252244254E-06</v>
+        <v>0.6348876951946478</v>
       </c>
       <c r="P4">
-        <v>0.8660262475536699</v>
+        <v>0.8307352055979556</v>
       </c>
       <c r="Q4">
-        <v>-6.991470114196112E-05</v>
+        <v>17.57011779629447</v>
       </c>
       <c r="R4">
-        <v>-31.65273629893531</v>
+        <v>-106.9885815722255</v>
       </c>
       <c r="S4">
-        <v>179.9998782703273</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660249771164166</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>1.492464471943748E-06</v>
+        <v>0.6348876951987337</v>
       </c>
       <c r="P5">
-        <v>0.8660262475617824</v>
+        <v>0.830735205604713</v>
       </c>
       <c r="Q5">
-        <v>-6.991379290032368E-05</v>
+        <v>17.57011779660423</v>
       </c>
       <c r="R5">
-        <v>-31.65330667438527</v>
+        <v>-106.9885815710308</v>
       </c>
       <c r="S5">
-        <v>179.9998782694191</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249771164165</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>1.492464471916466E-06</v>
+        <v>0.6348876951987337</v>
       </c>
       <c r="P6">
-        <v>0.8660262475617824</v>
+        <v>0.8307352056047133</v>
       </c>
       <c r="Q6">
-        <v>-6.99137929019647E-05</v>
+        <v>17.57011779660423</v>
       </c>
       <c r="R6">
-        <v>-31.65330667503094</v>
+        <v>-106.9885815710308</v>
       </c>
       <c r="S6">
-        <v>179.9998782694191</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9949806626618445</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9175617791399007</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9648695716021196</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.43727595412387</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.12802105335014</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2977,55 +2977,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.795733578210674</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.795733578210674</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20.73534529545565</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20.73534529545565</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>0.8660249771488666</v>
+        <v>1.005693895264114</v>
       </c>
       <c r="O3">
-        <v>1.492351594806117E-06</v>
+        <v>0.6348876951823903</v>
       </c>
       <c r="P3">
-        <v>0.8660262475293323</v>
+        <v>0.8307352055776831</v>
       </c>
       <c r="Q3">
-        <v>-6.991742583706194E-05</v>
+        <v>17.5701177953652</v>
       </c>
       <c r="R3">
-        <v>-31.65102505377781</v>
+        <v>-106.9885815758095</v>
       </c>
       <c r="S3">
-        <v>179.999878273052</v>
+        <v>158.5647675412734</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3069,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660249771245292</v>
+        <v>1.005693895251237</v>
       </c>
       <c r="O4">
-        <v>1.492436252244254E-06</v>
+        <v>0.6348876951946478</v>
       </c>
       <c r="P4">
-        <v>0.8660262475536699</v>
+        <v>0.8307352055979556</v>
       </c>
       <c r="Q4">
-        <v>-6.991470114196112E-05</v>
+        <v>17.57011779629447</v>
       </c>
       <c r="R4">
-        <v>-31.65273629893531</v>
+        <v>-106.9885815722255</v>
       </c>
       <c r="S4">
-        <v>179.9998782703273</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3128,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660249771164166</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>1.492464471943748E-06</v>
+        <v>0.6348876951987337</v>
       </c>
       <c r="P5">
-        <v>0.8660262475617824</v>
+        <v>0.830735205604713</v>
       </c>
       <c r="Q5">
-        <v>-6.991379290032368E-05</v>
+        <v>17.57011779660423</v>
       </c>
       <c r="R5">
-        <v>-31.65330667438527</v>
+        <v>-106.9885815710308</v>
       </c>
       <c r="S5">
-        <v>179.9998782694191</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249771164165</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>1.492464471916466E-06</v>
+        <v>0.6348876951987337</v>
       </c>
       <c r="P6">
-        <v>0.8660262475617824</v>
+        <v>0.8307352056047133</v>
       </c>
       <c r="Q6">
-        <v>-6.99137929019647E-05</v>
+        <v>17.57011779660423</v>
       </c>
       <c r="R6">
-        <v>-31.65330667503094</v>
+        <v>-106.9885815710308</v>
       </c>
       <c r="S6">
-        <v>179.9998782694191</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.10117430187381</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101327403595994</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95552522272911</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0306571041185</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06600736748356598</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7621874277027073</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3359,40 +3359,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.294550068676472</v>
+        <v>3.293488362646878</v>
       </c>
       <c r="I3">
-        <v>-581.8917998518376</v>
+        <v>-581.892053078937</v>
       </c>
       <c r="J3">
-        <v>9090879508.246786</v>
+        <v>0.1077319052534387</v>
       </c>
       <c r="K3">
-        <v>-12892.7921243012</v>
+        <v>2.308438694639714</v>
       </c>
       <c r="L3">
-        <v>9090908963.339314</v>
+        <v>0.1077319054212378</v>
       </c>
       <c r="M3">
-        <v>-60811.84519305825</v>
+        <v>2.308438694642545</v>
       </c>
       <c r="N3">
-        <v>0.5500008724341547</v>
+        <v>1.106402894037796</v>
       </c>
       <c r="O3">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P3">
-        <v>0.5500009334507853</v>
+        <v>1.106802353942271</v>
       </c>
       <c r="Q3">
-        <v>89.99984897373321</v>
+        <v>29.7847671477229</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99984901328872</v>
+        <v>150.1791232055087</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3436,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008724805243</v>
+        <v>1.106402894037319</v>
       </c>
       <c r="O4">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P4">
-        <v>0.5500009334044159</v>
+        <v>1.106802353942146</v>
       </c>
       <c r="Q4">
-        <v>89.99984896947588</v>
+        <v>29.78476714771592</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648172</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>89.9998490175461</v>
+        <v>150.1791232054839</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3495,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.550000872495981</v>
+        <v>1.106402894037161</v>
       </c>
       <c r="O5">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P5">
-        <v>0.5500009333889593</v>
+        <v>1.106802353942104</v>
       </c>
       <c r="Q5">
-        <v>89.99984896805678</v>
+        <v>29.7847671477136</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648172</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>89.99984901896519</v>
+        <v>150.1791232054756</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008724959807</v>
+        <v>1.106402894037161</v>
       </c>
       <c r="O6">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P6">
-        <v>0.5500009333889594</v>
+        <v>1.106802353942104</v>
       </c>
       <c r="Q6">
-        <v>89.99984896805677</v>
+        <v>29.78476714771359</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>89.99984901896519</v>
+        <v>150.1791232054756</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.10117430187381</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101327403595994</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95552522272911</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0306571041185</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06600736748356598</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7621874277027073</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3726,40 +3726,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.294550068676472</v>
+        <v>3.293488362646878</v>
       </c>
       <c r="I3">
-        <v>-581.8917998518376</v>
+        <v>-581.892053078937</v>
       </c>
       <c r="J3">
-        <v>9090879508.246786</v>
+        <v>0.1077319052534387</v>
       </c>
       <c r="K3">
-        <v>-12892.7921243012</v>
+        <v>2.308438694639714</v>
       </c>
       <c r="L3">
-        <v>9090908963.339314</v>
+        <v>0.1077319054212378</v>
       </c>
       <c r="M3">
-        <v>-60811.84519305825</v>
+        <v>2.308438694642545</v>
       </c>
       <c r="N3">
-        <v>0.5500008724341547</v>
+        <v>1.106402894037796</v>
       </c>
       <c r="O3">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P3">
-        <v>0.5500009334507853</v>
+        <v>1.106802353942271</v>
       </c>
       <c r="Q3">
-        <v>89.99984897373321</v>
+        <v>29.7847671477229</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99984901328872</v>
+        <v>150.1791232055087</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3803,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008724805243</v>
+        <v>1.106402894037319</v>
       </c>
       <c r="O4">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P4">
-        <v>0.5500009334044159</v>
+        <v>1.106802353942146</v>
       </c>
       <c r="Q4">
-        <v>89.99984896947588</v>
+        <v>29.78476714771592</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648172</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>89.9998490175461</v>
+        <v>150.1791232054839</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.550000872495981</v>
+        <v>1.106402894037161</v>
       </c>
       <c r="O5">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P5">
-        <v>0.5500009333889593</v>
+        <v>1.106802353942104</v>
       </c>
       <c r="Q5">
-        <v>89.99984896805678</v>
+        <v>29.7847671477136</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648172</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S5">
-        <v>89.99984901896519</v>
+        <v>150.1791232054756</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008724959807</v>
+        <v>1.106402894037161</v>
       </c>
       <c r="O6">
-        <v>1.10000180588494</v>
+        <v>1.1000000238418</v>
       </c>
       <c r="P6">
-        <v>0.5500009333889594</v>
+        <v>1.106802353942104</v>
       </c>
       <c r="Q6">
-        <v>89.99984896805677</v>
+        <v>29.78476714771359</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648173</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S6">
-        <v>89.99984901896519</v>
+        <v>150.1791232054756</v>
       </c>
     </row>
   </sheetData>
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101181071446518</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101377816979174</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95269801385532</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0295452366524</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,7 +4075,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06773283224764172</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7821113786230343</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4093,40 +4093,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.294550068676472</v>
+        <v>3.293488362646878</v>
       </c>
       <c r="I3">
-        <v>-581.8917998518376</v>
+        <v>-581.892053078937</v>
       </c>
       <c r="J3">
-        <v>9090879508.246786</v>
+        <v>0.1077319052534387</v>
       </c>
       <c r="K3">
-        <v>-12892.7921243012</v>
+        <v>2.308438694639714</v>
       </c>
       <c r="L3">
-        <v>9090908963.339314</v>
+        <v>0.1077319054212378</v>
       </c>
       <c r="M3">
-        <v>-60811.84519305825</v>
+        <v>2.308438694642545</v>
       </c>
       <c r="N3">
-        <v>0.5500008732200824</v>
+        <v>1.10645439956236</v>
       </c>
       <c r="O3">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P3">
-        <v>0.5500009326648556</v>
+        <v>1.107072459740724</v>
       </c>
       <c r="Q3">
-        <v>89.99984889186207</v>
+        <v>29.770115191886</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S3">
-        <v>89.9998490951604</v>
+        <v>150.1740118676895</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008732664521</v>
+        <v>1.106454399561868</v>
       </c>
       <c r="O4">
-        <v>1.100001805884938</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P4">
-        <v>0.550000932618486</v>
+        <v>1.107072459740583</v>
       </c>
       <c r="Q4">
-        <v>89.99984888760473</v>
+        <v>29.77011519187951</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S4">
-        <v>89.99984909941777</v>
+        <v>150.1740118676642</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4229,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5500008732819085</v>
+        <v>1.106454399561704</v>
       </c>
       <c r="O5">
-        <v>1.100001805884938</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P5">
-        <v>0.5500009326030295</v>
+        <v>1.107072459740535</v>
       </c>
       <c r="Q5">
-        <v>89.99984888618563</v>
+        <v>29.77011519187736</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S5">
-        <v>89.99984910083685</v>
+        <v>150.1740118676558</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008732819085</v>
+        <v>1.106454399561704</v>
       </c>
       <c r="O6">
-        <v>1.100001805884938</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P6">
-        <v>0.5500009326030296</v>
+        <v>1.107072459740535</v>
       </c>
       <c r="Q6">
-        <v>89.9998488861856</v>
+        <v>29.77011519187735</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99984910083687</v>
+        <v>150.1740118676558</v>
       </c>
     </row>
   </sheetData>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101181071446518</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101377816979174</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95269801385532</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0295452366524</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,7 +4593,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06773283224764172</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7821113786230343</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4611,40 +4611,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.294550068676472</v>
+        <v>3.293488362646878</v>
       </c>
       <c r="I3">
-        <v>-581.8917998518376</v>
+        <v>-581.892053078937</v>
       </c>
       <c r="J3">
-        <v>9090879508.246786</v>
+        <v>0.1077319052534387</v>
       </c>
       <c r="K3">
-        <v>-12892.7921243012</v>
+        <v>2.308438694639714</v>
       </c>
       <c r="L3">
-        <v>9090908963.339314</v>
+        <v>0.1077319054212378</v>
       </c>
       <c r="M3">
-        <v>-60811.84519305825</v>
+        <v>2.308438694642545</v>
       </c>
       <c r="N3">
-        <v>0.5500008732200824</v>
+        <v>1.10645439956236</v>
       </c>
       <c r="O3">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P3">
-        <v>0.5500009326648556</v>
+        <v>1.107072459740724</v>
       </c>
       <c r="Q3">
-        <v>89.99984889186207</v>
+        <v>29.770115191886</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S3">
-        <v>89.9998490951604</v>
+        <v>150.1740118676895</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4688,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5500008732664521</v>
+        <v>1.106454399561868</v>
       </c>
       <c r="O4">
-        <v>1.100001805884938</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P4">
-        <v>0.550000932618486</v>
+        <v>1.107072459740583</v>
       </c>
       <c r="Q4">
-        <v>89.99984888760473</v>
+        <v>29.77011519187951</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S4">
-        <v>89.99984909941777</v>
+        <v>150.1740118676642</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4747,22 +4747,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5500008732819085</v>
+        <v>1.106454399561704</v>
       </c>
       <c r="O5">
-        <v>1.100001805884938</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P5">
-        <v>0.5500009326030295</v>
+        <v>1.107072459740535</v>
       </c>
       <c r="Q5">
-        <v>89.99984888618563</v>
+        <v>29.77011519187736</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S5">
-        <v>89.99984910083685</v>
+        <v>150.1740118676558</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008732819085</v>
+        <v>1.106454399561704</v>
       </c>
       <c r="O6">
-        <v>1.100001805884938</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P6">
-        <v>0.5500009326030296</v>
+        <v>1.107072459740535</v>
       </c>
       <c r="Q6">
-        <v>89.9998488861856</v>
+        <v>29.77011519187735</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648146</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99984910083687</v>
+        <v>150.1740118676558</v>
       </c>
     </row>
   </sheetData>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001208851559176</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001374904124079</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94908598765016</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0344280073315</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,7 +4960,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06002555718177252</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6931154319430728</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4978,40 +4978,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.323327869176865</v>
+        <v>6.323234325758772</v>
       </c>
       <c r="I3">
-        <v>-581.8997104736421</v>
+        <v>-581.9000284918691</v>
       </c>
       <c r="J3">
-        <v>9090945086.511395</v>
+        <v>0.1153518594479652</v>
       </c>
       <c r="K3">
-        <v>-15484.74641628563</v>
+        <v>2.416397540672655</v>
       </c>
       <c r="L3">
-        <v>9090930576.388435</v>
+        <v>0.1153518594792735</v>
       </c>
       <c r="M3">
-        <v>30863.64044398069</v>
+        <v>2.416397540675619</v>
       </c>
       <c r="N3">
-        <v>0.4999995732567072</v>
+        <v>1.006070510381055</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504023</v>
+        <v>0.9999999999999327</v>
       </c>
       <c r="P3">
-        <v>0.4999996286936951</v>
+        <v>1.0064963763007</v>
       </c>
       <c r="Q3">
-        <v>90.000146021028</v>
+        <v>29.77247998910283</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412883</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>90.00014609069974</v>
+        <v>150.1851698152469</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999995732988606</v>
+        <v>1.006070510380362</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504023</v>
+        <v>0.9999999999999331</v>
       </c>
       <c r="P4">
-        <v>0.4999996286515416</v>
+        <v>1.006496376300322</v>
       </c>
       <c r="Q4">
-        <v>90.00014601285386</v>
+        <v>29.7724799891046</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>90.0001460988739</v>
+        <v>150.1851698152137</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5114,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995733129118</v>
+        <v>1.00607051038013</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504022</v>
+        <v>0.9999999999999331</v>
       </c>
       <c r="P5">
-        <v>0.4999996286374903</v>
+        <v>1.006496376300196</v>
       </c>
       <c r="Q5">
-        <v>90.00014601012917</v>
+        <v>29.7724799891052</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>90.0001461015986</v>
+        <v>150.1851698152027</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995733129118</v>
+        <v>1.00607051038013</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504022</v>
+        <v>0.9999999999999331</v>
       </c>
       <c r="P6">
-        <v>0.4999996286374903</v>
+        <v>1.006496376300196</v>
       </c>
       <c r="Q6">
-        <v>90.00014601012917</v>
+        <v>29.7724799891052</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>90.00014610159862</v>
+        <v>150.1851698152027</v>
       </c>
     </row>
   </sheetData>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001208851559176</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001374904124079</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94908598765016</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0344280073315</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,7 +5327,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06002555718177252</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6931154319430728</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5345,40 +5345,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.323327869176865</v>
+        <v>6.323234325758772</v>
       </c>
       <c r="I3">
-        <v>-581.8997104736421</v>
+        <v>-581.9000284918691</v>
       </c>
       <c r="J3">
-        <v>9090945086.511395</v>
+        <v>0.1153518594479652</v>
       </c>
       <c r="K3">
-        <v>-15484.74641628563</v>
+        <v>2.416397540672655</v>
       </c>
       <c r="L3">
-        <v>9090930576.388435</v>
+        <v>0.1153518594792735</v>
       </c>
       <c r="M3">
-        <v>30863.64044398069</v>
+        <v>2.416397540675619</v>
       </c>
       <c r="N3">
-        <v>0.4999995732567072</v>
+        <v>1.006070510381055</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504023</v>
+        <v>0.9999999999999327</v>
       </c>
       <c r="P3">
-        <v>0.4999996286936951</v>
+        <v>1.0064963763007</v>
       </c>
       <c r="Q3">
-        <v>90.000146021028</v>
+        <v>29.77247998910283</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412883</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>90.00014609069974</v>
+        <v>150.1851698152469</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5422,22 +5422,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999995732988606</v>
+        <v>1.006070510380362</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504023</v>
+        <v>0.9999999999999331</v>
       </c>
       <c r="P4">
-        <v>0.4999996286515416</v>
+        <v>1.006496376300322</v>
       </c>
       <c r="Q4">
-        <v>90.00014601285386</v>
+        <v>29.7724799891046</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>90.0001460988739</v>
+        <v>150.1851698152137</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5481,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995733129118</v>
+        <v>1.00607051038013</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504022</v>
+        <v>0.9999999999999331</v>
       </c>
       <c r="P5">
-        <v>0.4999996286374903</v>
+        <v>1.006496376300196</v>
       </c>
       <c r="Q5">
-        <v>90.00014601012917</v>
+        <v>29.7724799891052</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>90.0001461015986</v>
+        <v>150.1851698152027</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995733129118</v>
+        <v>1.00607051038013</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504022</v>
+        <v>0.9999999999999331</v>
       </c>
       <c r="P6">
-        <v>0.4999996286374903</v>
+        <v>1.006496376300196</v>
       </c>
       <c r="Q6">
-        <v>90.00014601012917</v>
+        <v>29.7724799891052</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412882</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>90.00014610159862</v>
+        <v>150.1851698152027</v>
       </c>
     </row>
   </sheetData>
@@ -5671,22 +5671,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.00121525349201</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999943</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001426768816147</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94586806853145</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0331320967876</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,7 +5694,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06158617983380197</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7111359501081254</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5712,40 +5712,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.323327869176865</v>
+        <v>6.323234325758772</v>
       </c>
       <c r="I3">
-        <v>-581.8997104736421</v>
+        <v>-581.9000284918691</v>
       </c>
       <c r="J3">
-        <v>9090945086.511395</v>
+        <v>0.1153518594479652</v>
       </c>
       <c r="K3">
-        <v>-15484.74641628563</v>
+        <v>2.416397540672655</v>
       </c>
       <c r="L3">
-        <v>9090930576.388435</v>
+        <v>0.1153518594792735</v>
       </c>
       <c r="M3">
-        <v>30863.64044398069</v>
+        <v>2.416397540675619</v>
       </c>
       <c r="N3">
-        <v>0.4999995739711727</v>
+        <v>1.006116436148853</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504044</v>
+        <v>0.9999999999999324</v>
       </c>
       <c r="P3">
-        <v>0.4999996279792317</v>
+        <v>1.006752415815867</v>
       </c>
       <c r="Q3">
-        <v>90.00014593915512</v>
+        <v>29.75710708036483</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412893</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>90.00014617257244</v>
+        <v>150.1796448689419</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5789,22 +5789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.499999574013326</v>
+        <v>1.006116436148142</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504041</v>
+        <v>0.9999999999999328</v>
       </c>
       <c r="P4">
-        <v>0.4999996279370783</v>
+        <v>1.006752415815463</v>
       </c>
       <c r="Q4">
-        <v>90.00014593098099</v>
+        <v>29.75710708036773</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>90.0001461807466</v>
+        <v>150.1796448689085</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5848,22 +5848,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995740273771</v>
+        <v>1.006116436147905</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504041</v>
+        <v>0.9999999999999329</v>
       </c>
       <c r="P5">
-        <v>0.499999627923027</v>
+        <v>1.006752415815328</v>
       </c>
       <c r="Q5">
-        <v>90.00014592825629</v>
+        <v>29.75710708036871</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>90.00014618347129</v>
+        <v>150.1796448688974</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995740273771</v>
+        <v>1.006116436147906</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504041</v>
+        <v>0.9999999999999328</v>
       </c>
       <c r="P6">
-        <v>0.499999627923027</v>
+        <v>1.006752415815328</v>
       </c>
       <c r="Q6">
-        <v>90.00014592825627</v>
+        <v>29.7571070803687</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>90.0001461834713</v>
+        <v>150.1796448688974</v>
       </c>
     </row>
   </sheetData>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.00121525349201</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999943</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001426768816147</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94586806853145</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0331320967876</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06158617983380197</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7111359501081254</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6079,40 +6079,40 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.323327869176865</v>
+        <v>6.323234325758772</v>
       </c>
       <c r="I3">
-        <v>-581.8997104736421</v>
+        <v>-581.9000284918691</v>
       </c>
       <c r="J3">
-        <v>9090945086.511395</v>
+        <v>0.1153518594479652</v>
       </c>
       <c r="K3">
-        <v>-15484.74641628563</v>
+        <v>2.416397540672655</v>
       </c>
       <c r="L3">
-        <v>9090930576.388435</v>
+        <v>0.1153518594792735</v>
       </c>
       <c r="M3">
-        <v>30863.64044398069</v>
+        <v>2.416397540675619</v>
       </c>
       <c r="N3">
-        <v>0.4999995739711727</v>
+        <v>1.006116436148853</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504044</v>
+        <v>0.9999999999999324</v>
       </c>
       <c r="P3">
-        <v>0.4999996279792317</v>
+        <v>1.006752415815867</v>
       </c>
       <c r="Q3">
-        <v>90.00014593915512</v>
+        <v>29.75710708036483</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412893</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>90.00014617257244</v>
+        <v>150.1796448689419</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6156,22 +6156,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.499999574013326</v>
+        <v>1.006116436148142</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504041</v>
+        <v>0.9999999999999328</v>
       </c>
       <c r="P4">
-        <v>0.4999996279370783</v>
+        <v>1.006752415815463</v>
       </c>
       <c r="Q4">
-        <v>90.00014593098099</v>
+        <v>29.75710708036773</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>90.0001461807466</v>
+        <v>150.1796448689085</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6215,22 +6215,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995740273771</v>
+        <v>1.006116436147905</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504041</v>
+        <v>0.9999999999999329</v>
       </c>
       <c r="P5">
-        <v>0.499999627923027</v>
+        <v>1.006752415815328</v>
       </c>
       <c r="Q5">
-        <v>90.00014592825629</v>
+        <v>29.75710708036871</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S5">
-        <v>90.00014618347129</v>
+        <v>150.1796448688974</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995740273771</v>
+        <v>1.006116436147906</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504041</v>
+        <v>0.9999999999999328</v>
       </c>
       <c r="P6">
-        <v>0.499999627923027</v>
+        <v>1.006752415815328</v>
       </c>
       <c r="Q6">
-        <v>90.00014592825627</v>
+        <v>29.7571070803687</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412892</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>90.0001461834713</v>
+        <v>150.1796448688974</v>
       </c>
     </row>
   </sheetData>
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046903669889783</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523671</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056993465075152</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.17826218054768</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314879</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.074040837487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6431,55 +6431,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.760832185341538</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759113936764039</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.97335487547143</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.95351424989635</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>5.169530338244443E-06</v>
+        <v>0.954520750614957</v>
       </c>
       <c r="O3">
-        <v>5.603259634901888E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.589153964813023E-06</v>
+        <v>0.954520750615431</v>
       </c>
       <c r="Q3">
-        <v>-76.88999038707982</v>
+        <v>-0.005958769750587648</v>
       </c>
       <c r="R3">
-        <v>130.5453808868974</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>17.46175347333703</v>
+        <v>179.9940412302506</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6523,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.169465394584603E-06</v>
+        <v>0.954520750588097</v>
       </c>
       <c r="O4">
-        <v>5.603188969863526E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.589082608786018E-06</v>
+        <v>0.9545207506421189</v>
       </c>
       <c r="Q4">
-        <v>-76.88966233512853</v>
+        <v>-0.005958768339720164</v>
       </c>
       <c r="R4">
-        <v>130.5452785203917</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17.46172186175212</v>
+        <v>179.9940412288292</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.169443746631452E-06</v>
+        <v>0.9545207505791438</v>
       </c>
       <c r="O5">
-        <v>5.603165414949975E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.589058823437689E-06</v>
+        <v>0.9545207506510149</v>
       </c>
       <c r="Q5">
-        <v>-76.88955298480896</v>
+        <v>-0.005958767869447175</v>
       </c>
       <c r="R5">
-        <v>130.5452443950909</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17.46171131743292</v>
+        <v>179.9940412283554</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.169443746690335E-06</v>
+        <v>0.9545207505791438</v>
       </c>
       <c r="O6">
-        <v>5.603165414762182E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.589058823386763E-06</v>
+        <v>0.9545207506510149</v>
       </c>
       <c r="Q6">
-        <v>-76.8895529842315</v>
+        <v>-0.005958767869439872</v>
       </c>
       <c r="R6">
-        <v>130.5452443958711</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>17.46171132330477</v>
+        <v>179.9940412283554</v>
       </c>
     </row>
   </sheetData>
@@ -6772,22 +6772,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046903669889783</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523671</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056993465075152</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.17826218054768</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314879</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.074040837487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6798,55 +6798,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.760832185341538</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759113936764039</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.97335487547143</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.95351424989635</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>5.169530338244443E-06</v>
+        <v>0.954520750614957</v>
       </c>
       <c r="O3">
-        <v>5.603259634901888E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.589153964813023E-06</v>
+        <v>0.954520750615431</v>
       </c>
       <c r="Q3">
-        <v>-76.88999038707982</v>
+        <v>-0.005958769750587648</v>
       </c>
       <c r="R3">
-        <v>130.5453808868974</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>17.46175347333703</v>
+        <v>179.9940412302506</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6890,22 +6890,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.169465394584603E-06</v>
+        <v>0.954520750588097</v>
       </c>
       <c r="O4">
-        <v>5.603188969863526E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.589082608786018E-06</v>
+        <v>0.9545207506421189</v>
       </c>
       <c r="Q4">
-        <v>-76.88966233512853</v>
+        <v>-0.005958768339720164</v>
       </c>
       <c r="R4">
-        <v>130.5452785203917</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17.46172186175212</v>
+        <v>179.9940412288292</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6949,22 +6949,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.169443746631452E-06</v>
+        <v>0.9545207505791438</v>
       </c>
       <c r="O5">
-        <v>5.603165414949975E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.589058823437689E-06</v>
+        <v>0.9545207506510149</v>
       </c>
       <c r="Q5">
-        <v>-76.88955298480896</v>
+        <v>-0.005958767869447175</v>
       </c>
       <c r="R5">
-        <v>130.5452443950909</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17.46171131743292</v>
+        <v>179.9940412283554</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.169443746690335E-06</v>
+        <v>0.9545207505791438</v>
       </c>
       <c r="O6">
-        <v>5.603165414762182E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.589058823386763E-06</v>
+        <v>0.9545207506510149</v>
       </c>
       <c r="Q6">
-        <v>-76.8895529842315</v>
+        <v>-0.005958767869439872</v>
       </c>
       <c r="R6">
-        <v>130.5452443958711</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>17.46171132330477</v>
+        <v>179.9940412283554</v>
       </c>
     </row>
   </sheetData>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100272145004184</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.052967690033148</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.077104979894174</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.57523159466416</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.44286082238199</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.7461108164887</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7165,55 +7165,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.243528319383923</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.223981398390353</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14.35902819882462</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.13331979687529</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>5.167993002152729E-06</v>
+        <v>1.116520219108638</v>
       </c>
       <c r="O3">
-        <v>5.60240660696349E-06</v>
+        <v>0.8723446855796154</v>
       </c>
       <c r="P3">
-        <v>2.58698519366647E-06</v>
+        <v>0.9778459204547473</v>
       </c>
       <c r="Q3">
-        <v>-76.87157124637059</v>
+        <v>22.61551062906408</v>
       </c>
       <c r="R3">
-        <v>130.5447011784852</v>
+        <v>-100.0510163396294</v>
       </c>
       <c r="S3">
-        <v>17.44739213229245</v>
+        <v>153.9384021423684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7257,22 +7257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.167928067963243E-06</v>
+        <v>1.116520219100656</v>
       </c>
       <c r="O4">
-        <v>5.602335942099645E-06</v>
+        <v>0.8723446855793133</v>
       </c>
       <c r="P4">
-        <v>2.586913837819699E-06</v>
+        <v>0.977845920463554</v>
       </c>
       <c r="Q4">
-        <v>-76.87124286452715</v>
+        <v>22.61551062931127</v>
       </c>
       <c r="R4">
-        <v>130.544598786469</v>
+        <v>-100.0510163384146</v>
       </c>
       <c r="S4">
-        <v>17.44736009485159</v>
+        <v>153.9384021425194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7316,22 +7316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.167906423197401E-06</v>
+        <v>1.116520219097996</v>
       </c>
       <c r="O5">
-        <v>5.602312387399398E-06</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P5">
-        <v>2.586890052694598E-06</v>
+        <v>0.9778459204664894</v>
       </c>
       <c r="Q5">
-        <v>-76.87113340383412</v>
+        <v>22.61551062939367</v>
       </c>
       <c r="R5">
-        <v>130.5445646541826</v>
+        <v>-100.0510163380097</v>
       </c>
       <c r="S5">
-        <v>17.44734940743422</v>
+        <v>153.9384021425698</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.167906423318745E-06</v>
+        <v>1.116520219097996</v>
       </c>
       <c r="O6">
-        <v>5.602312387274397E-06</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P6">
-        <v>2.586890052482875E-06</v>
+        <v>0.9778459204664894</v>
       </c>
       <c r="Q6">
-        <v>-76.87113340341817</v>
+        <v>22.61551062939367</v>
       </c>
       <c r="R6">
-        <v>130.5445646526881</v>
+        <v>-100.0510163380097</v>
       </c>
       <c r="S6">
-        <v>17.44734941145374</v>
+        <v>153.9384021425698</v>
       </c>
     </row>
   </sheetData>
@@ -7506,22 +7506,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100272145004184</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.052967690033148</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.077104979894174</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.57523159466416</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.44286082238199</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.7461108164887</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7532,55 +7532,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.243528319383923</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.223981398390353</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14.35902819882462</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.13331979687529</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>5.167993002152729E-06</v>
+        <v>1.116520219108638</v>
       </c>
       <c r="O3">
-        <v>5.60240660696349E-06</v>
+        <v>0.8723446855796154</v>
       </c>
       <c r="P3">
-        <v>2.58698519366647E-06</v>
+        <v>0.9778459204547473</v>
       </c>
       <c r="Q3">
-        <v>-76.87157124637059</v>
+        <v>22.61551062906408</v>
       </c>
       <c r="R3">
-        <v>130.5447011784852</v>
+        <v>-100.0510163396294</v>
       </c>
       <c r="S3">
-        <v>17.44739213229245</v>
+        <v>153.9384021423684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7624,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.167928067963243E-06</v>
+        <v>1.116520219100656</v>
       </c>
       <c r="O4">
-        <v>5.602335942099645E-06</v>
+        <v>0.8723446855793133</v>
       </c>
       <c r="P4">
-        <v>2.586913837819699E-06</v>
+        <v>0.977845920463554</v>
       </c>
       <c r="Q4">
-        <v>-76.87124286452715</v>
+        <v>22.61551062931127</v>
       </c>
       <c r="R4">
-        <v>130.544598786469</v>
+        <v>-100.0510163384146</v>
       </c>
       <c r="S4">
-        <v>17.44736009485159</v>
+        <v>153.9384021425194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7683,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.167906423197401E-06</v>
+        <v>1.116520219097996</v>
       </c>
       <c r="O5">
-        <v>5.602312387399398E-06</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P5">
-        <v>2.586890052694598E-06</v>
+        <v>0.9778459204664894</v>
       </c>
       <c r="Q5">
-        <v>-76.87113340383412</v>
+        <v>22.61551062939367</v>
       </c>
       <c r="R5">
-        <v>130.5445646541826</v>
+        <v>-100.0510163380097</v>
       </c>
       <c r="S5">
-        <v>17.44734940743422</v>
+        <v>153.9384021425698</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.167906423318745E-06</v>
+        <v>1.116520219097996</v>
       </c>
       <c r="O6">
-        <v>5.602312387274397E-06</v>
+        <v>0.8723446855792125</v>
       </c>
       <c r="P6">
-        <v>2.586890052482875E-06</v>
+        <v>0.9778459204664894</v>
       </c>
       <c r="Q6">
-        <v>-76.87113340341817</v>
+        <v>22.61551062939367</v>
       </c>
       <c r="R6">
-        <v>130.5445646526881</v>
+        <v>-100.0510163380097</v>
       </c>
       <c r="S6">
-        <v>17.44734941145374</v>
+        <v>153.9384021425698</v>
       </c>
     </row>
   </sheetData>
@@ -7873,22 +7873,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9480424874942318</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7936674232739472</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9578378229824362</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.73995239241458</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897001</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5243398803034</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7899,55 +7899,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.134586103121056</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.132836688662333</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.74208799249255</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.72188749431919</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>1.118819871699598E-06</v>
+        <v>0.8678261170020916</v>
       </c>
       <c r="O3">
-        <v>1.49197147573705E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.901807199255161E-06</v>
+        <v>0.8678261170022457</v>
       </c>
       <c r="Q3">
-        <v>-119.2590250371042</v>
+        <v>-0.006985349122201282</v>
       </c>
       <c r="R3">
-        <v>-31.64755390316169</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>112.3526840609837</v>
+        <v>179.9930146508092</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7991,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.118724197362984E-06</v>
+        <v>0.8678261169775958</v>
       </c>
       <c r="O4">
-        <v>1.49205613054405E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.901842688473147E-06</v>
+        <v>0.8678261170264348</v>
       </c>
       <c r="Q4">
-        <v>-119.2590113184789</v>
+        <v>-0.006985346408553523</v>
       </c>
       <c r="R4">
-        <v>-31.64926577380692</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>112.3553608106106</v>
+        <v>179.9930146480852</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8050,22 +8050,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.118692306070381E-06</v>
+        <v>0.8678261169694304</v>
       </c>
       <c r="O5">
-        <v>1.492084349271843E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.901854518872238E-06</v>
+        <v>0.8678261170344975</v>
       </c>
       <c r="Q5">
-        <v>-119.2590067645269</v>
+        <v>-0.006985345504010521</v>
       </c>
       <c r="R5">
-        <v>-31.64983634166026</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>112.3562530384082</v>
+        <v>179.9930146471771</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.118692306009127E-06</v>
+        <v>0.8678261169694304</v>
       </c>
       <c r="O6">
-        <v>1.492084349345463E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.901854519030548E-06</v>
+        <v>0.8678261170344975</v>
       </c>
       <c r="Q6">
-        <v>-119.2590067625215</v>
+        <v>-0.006985345504003413</v>
       </c>
       <c r="R6">
-        <v>-31.64983634859194</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>112.3562530374907</v>
+        <v>179.9930146471771</v>
       </c>
     </row>
   </sheetData>
@@ -8391,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9480424874942318</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7936674232739472</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9578378229824362</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>24.73995239241458</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.22492623897001</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.5243398803034</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8417,55 +8417,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.134586103121056</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.132836688662333</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.74208799249255</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.72188749431919</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>1.118819871699598E-06</v>
+        <v>0.8678261170020916</v>
       </c>
       <c r="O3">
-        <v>1.49197147573705E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.901807199255161E-06</v>
+        <v>0.8678261170022457</v>
       </c>
       <c r="Q3">
-        <v>-119.2590250371042</v>
+        <v>-0.006985349122201282</v>
       </c>
       <c r="R3">
-        <v>-31.64755390316169</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>112.3526840609837</v>
+        <v>179.9930146508092</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8509,22 +8509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.118724197362984E-06</v>
+        <v>0.8678261169775958</v>
       </c>
       <c r="O4">
-        <v>1.49205613054405E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.901842688473147E-06</v>
+        <v>0.8678261170264348</v>
       </c>
       <c r="Q4">
-        <v>-119.2590113184789</v>
+        <v>-0.006985346408553523</v>
       </c>
       <c r="R4">
-        <v>-31.64926577380692</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>112.3553608106106</v>
+        <v>179.9930146480852</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8568,22 +8568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.118692306070381E-06</v>
+        <v>0.8678261169694304</v>
       </c>
       <c r="O5">
-        <v>1.492084349271843E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.901854518872238E-06</v>
+        <v>0.8678261170344975</v>
       </c>
       <c r="Q5">
-        <v>-119.2590067645269</v>
+        <v>-0.006985345504010521</v>
       </c>
       <c r="R5">
-        <v>-31.64983634166026</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>112.3562530384082</v>
+        <v>179.9930146471771</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.118692306009127E-06</v>
+        <v>0.8678261169694304</v>
       </c>
       <c r="O6">
-        <v>1.492084349345463E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.901854519030548E-06</v>
+        <v>0.8678261170344975</v>
       </c>
       <c r="Q6">
-        <v>-119.2590067625215</v>
+        <v>-0.006985345504003413</v>
       </c>
       <c r="R6">
-        <v>-31.64983634859194</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>112.3562530374907</v>
+        <v>179.9930146471771</v>
       </c>
     </row>
   </sheetData>
@@ -8758,22 +8758,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000152336168572</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.951784480252901</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9766987727183941</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.39740222107054</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.61401138281124</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.8498413864173</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8784,55 +8784,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.118889686284203</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.101141879946142</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.91982523139361</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>12.71489121605751</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>1.116769342886405E-06</v>
+        <v>1.01492245719721</v>
       </c>
       <c r="O3">
-        <v>1.492728272468187E-06</v>
+        <v>0.784852101413869</v>
       </c>
       <c r="P3">
-        <v>1.901389057603514E-06</v>
+        <v>0.8855777836689857</v>
       </c>
       <c r="Q3">
-        <v>-119.2501024004524</v>
+        <v>22.34415474817341</v>
       </c>
       <c r="R3">
-        <v>-31.65444851420177</v>
+        <v>-100.404596678692</v>
       </c>
       <c r="S3">
-        <v>112.4133961247463</v>
+        <v>154.1515793633074</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8876,22 +8876,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.116673668630082E-06</v>
+        <v>1.014922457188761</v>
       </c>
       <c r="O4">
-        <v>1.492812932673809E-06</v>
+        <v>0.7848521014214451</v>
       </c>
       <c r="P4">
-        <v>1.901424640698567E-06</v>
+        <v>0.885577783681718</v>
       </c>
       <c r="Q4">
-        <v>-119.250087902396</v>
+        <v>22.34415474872739</v>
       </c>
       <c r="R4">
-        <v>-31.65615911648965</v>
+        <v>-100.4045966769</v>
       </c>
       <c r="S4">
-        <v>112.4160723303461</v>
+        <v>154.1515793632737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.116641777382867E-06</v>
+        <v>1.014922457185945</v>
       </c>
       <c r="O5">
-        <v>1.492841153378112E-06</v>
+        <v>0.7848521014239704</v>
       </c>
       <c r="P5">
-        <v>1.901436502709583E-06</v>
+        <v>0.8855777836859623</v>
       </c>
       <c r="Q5">
-        <v>-119.2500830881032</v>
+        <v>22.34415474891204</v>
       </c>
       <c r="R5">
-        <v>-31.65672927186914</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>112.4169643731193</v>
+        <v>154.1515793632625</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.116641777265756E-06</v>
+        <v>1.014922457185945</v>
       </c>
       <c r="O6">
-        <v>1.492841153445393E-06</v>
+        <v>0.7848521014239704</v>
       </c>
       <c r="P6">
-        <v>1.901436502761639E-06</v>
+        <v>0.8855777836859621</v>
       </c>
       <c r="Q6">
-        <v>-119.2500830876988</v>
+        <v>22.34415474891204</v>
       </c>
       <c r="R6">
-        <v>-31.65672927605731</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>112.4169643745616</v>
+        <v>154.1515793632625</v>
       </c>
     </row>
   </sheetData>
@@ -9125,22 +9125,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000152336168572</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.951784480252901</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9766987727183941</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.39740222107054</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.61401138281124</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.8498413864173</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9151,55 +9151,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.118889686284203</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.101141879946142</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.91982523139361</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>12.71489121605751</v>
       </c>
       <c r="H3">
-        <v>6.32416158914566</v>
+        <v>6.323234325758712</v>
       </c>
       <c r="I3">
-        <v>-581.899741403448</v>
+        <v>-581.9000284918692</v>
       </c>
       <c r="J3">
-        <v>9090956116.674732</v>
+        <v>0.115351859513746</v>
       </c>
       <c r="K3">
-        <v>-8045.739865303041</v>
+        <v>2.416397540756058</v>
       </c>
       <c r="L3">
-        <v>9090964257.920811</v>
+        <v>0.1153518594671345</v>
       </c>
       <c r="M3">
-        <v>13743.32330077887</v>
+        <v>2.416397540682842</v>
       </c>
       <c r="N3">
-        <v>1.116769342886405E-06</v>
+        <v>1.01492245719721</v>
       </c>
       <c r="O3">
-        <v>1.492728272468187E-06</v>
+        <v>0.784852101413869</v>
       </c>
       <c r="P3">
-        <v>1.901389057603514E-06</v>
+        <v>0.8855777836689857</v>
       </c>
       <c r="Q3">
-        <v>-119.2501024004524</v>
+        <v>22.34415474817341</v>
       </c>
       <c r="R3">
-        <v>-31.65444851420177</v>
+        <v>-100.404596678692</v>
       </c>
       <c r="S3">
-        <v>112.4133961247463</v>
+        <v>154.1515793633074</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.116673668630082E-06</v>
+        <v>1.014922457188761</v>
       </c>
       <c r="O4">
-        <v>1.492812932673809E-06</v>
+        <v>0.7848521014214451</v>
       </c>
       <c r="P4">
-        <v>1.901424640698567E-06</v>
+        <v>0.885577783681718</v>
       </c>
       <c r="Q4">
-        <v>-119.250087902396</v>
+        <v>22.34415474872739</v>
       </c>
       <c r="R4">
-        <v>-31.65615911648965</v>
+        <v>-100.4045966769</v>
       </c>
       <c r="S4">
-        <v>112.4160723303461</v>
+        <v>154.1515793632737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9302,22 +9302,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.116641777382867E-06</v>
+        <v>1.014922457185945</v>
       </c>
       <c r="O5">
-        <v>1.492841153378112E-06</v>
+        <v>0.7848521014239704</v>
       </c>
       <c r="P5">
-        <v>1.901436502709583E-06</v>
+        <v>0.8855777836859623</v>
       </c>
       <c r="Q5">
-        <v>-119.2500830881032</v>
+        <v>22.34415474891204</v>
       </c>
       <c r="R5">
-        <v>-31.65672927186914</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S5">
-        <v>112.4169643731193</v>
+        <v>154.1515793632625</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.116641777265756E-06</v>
+        <v>1.014922457185945</v>
       </c>
       <c r="O6">
-        <v>1.492841153445393E-06</v>
+        <v>0.7848521014239704</v>
       </c>
       <c r="P6">
-        <v>1.901436502761639E-06</v>
+        <v>0.8855777836859621</v>
       </c>
       <c r="Q6">
-        <v>-119.2500830876988</v>
+        <v>22.34415474891204</v>
       </c>
       <c r="R6">
-        <v>-31.65672927605731</v>
+        <v>-100.4045966763027</v>
       </c>
       <c r="S6">
-        <v>112.4169643745616</v>
+        <v>154.1515793632625</v>
       </c>
     </row>
   </sheetData>
@@ -10247,22 +10247,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.046595068049951</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.8909260930523829</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.18850204033981</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.28600430314908</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10273,55 +10273,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.759944874248851</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>54.96310908950708</v>
       </c>
       <c r="H3">
-        <v>3.292950242757797</v>
+        <v>3.293488362648109</v>
       </c>
       <c r="I3">
-        <v>-581.8907363109759</v>
+        <v>-581.8920530789367</v>
       </c>
       <c r="J3">
-        <v>9090849404.995718</v>
+        <v>0.1077319054358409</v>
       </c>
       <c r="K3">
-        <v>-72024.30535852911</v>
+        <v>2.308438694688673</v>
       </c>
       <c r="L3">
-        <v>9090896116.926708</v>
+        <v>0.1077319054093567</v>
       </c>
       <c r="M3">
-        <v>-46557.46853798629</v>
+        <v>2.308438694650016</v>
       </c>
       <c r="N3">
-        <v>0.9526302265340155</v>
+        <v>0.9526279648020826</v>
       </c>
       <c r="O3">
-        <v>5.603216276639368E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526265841752217</v>
+        <v>0.9526279648025182</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370838423278735</v>
+        <v>-3.879734892801034E-12</v>
       </c>
       <c r="R3">
-        <v>130.5452019608376</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9998809959197</v>
+        <v>-179.9999999999901</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10365,22 +10365,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526302265072437</v>
+        <v>0.9526279647753111</v>
       </c>
       <c r="O4">
-        <v>5.603145611868768E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952626584201993</v>
+        <v>0.9526279648292897</v>
       </c>
       <c r="Q4">
-        <v>-0.000137082423217952</v>
+        <v>1.41523214460511E-09</v>
       </c>
       <c r="R4">
-        <v>130.545099590077</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998809973388</v>
+        <v>179.9999999985762</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302264983201</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O5">
-        <v>5.603122057063056E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526265842109171</v>
+        <v>0.9526279648382132</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370819501895625</v>
+        <v>1.888264446876545E-09</v>
       </c>
       <c r="R5">
-        <v>130.5450654629078</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998809978118</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302264983197</v>
+        <v>0.9526279647663872</v>
       </c>
       <c r="O6">
-        <v>5.603122056916932E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526265842109168</v>
+        <v>0.9526279648382133</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370819501902257</v>
+        <v>1.888274637957202E-09</v>
       </c>
       <c r="R6">
-        <v>130.545065464186</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998809978119</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
   </sheetData>
